--- a/Projects/MARSRU_PROD/Data/2020_06_14/KPIs to SQL.xlsx
+++ b/Projects/MARSRU_PROD/Data/2020_06_14/KPIs to SQL.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="29">
   <si>
     <t xml:space="preserve">A</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t xml:space="preserve">Виск апп. микс гов/ягн 24*85г  - [Кол-во горизонтальных фэйсов на основной полке]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сум размер Sh + PF + Cesar + N&amp;T + Dreamies + С&amp;T Pedegree (в метрах) на всех полках</t>
   </si>
 </sst>
 </file>
@@ -235,18 +238,18 @@
   <dimension ref="A1:K65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8:K10"/>
+      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.0408163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="12.5255102040816"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.1428571428571"/>
-    <col collapsed="false" hidden="false" max="10" min="6" style="1" width="12.5255102040816"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="332.617346938775"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="12.5255102040816"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.2448979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.1887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="13.2448979591837"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.0051020408163"/>
+    <col collapsed="false" hidden="false" max="10" min="6" style="1" width="13.2448979591837"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="16.5408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="13.2448979591837"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -448,6 +451,15 @@
     <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -558,6 +570,43 @@
       <c r="K10" s="1" t="str">
         <f aca="false">CONCATENATE(F10,E10,G10,A10,H10,A10,I10,D10,J10)</f>
         <v>('1447', NULL, '5036', '5036', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="n">
+        <v>6070</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f aca="false">IF(EXACT(C12,"Boolean"),"'10'","NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>1448</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="1" t="str">
+        <f aca="false">CONCATENATE(F12,E12,G12,A12,H12,A12,I12,D12,J12)</f>
+        <v>('1448', NULL, '6070', '6070', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
       </c>
     </row>
     <row r="1048423" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -733,14 +782,14 @@
   <dimension ref="A1:K65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8:K10"/>
+      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="1" width="12.5255102040816"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.1428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="12.5255102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="1" width="13.2448979591837"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.0051020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="13.2448979591837"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -939,6 +988,19 @@
         <v>('2742', NULL, '5034-RUS', '5034 - Cesar гов. с овощами 100г [Кол-во горизонтальных фэйсов на основной полке]', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
       </c>
     </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0"/>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+    </row>
     <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
         <v>6048</v>
@@ -1048,6 +1110,43 @@
       <c r="K10" s="1" t="str">
         <f aca="false">CONCATENATE(F10,E10,G10,CONCATENATE(A10,"-RUS"),H10,CONCATENATE(A10," - ",B10),I10,D10,J10)</f>
         <v>('2912', NULL, '5036-RUS', '5036 - Виск апп. микс гов/ягн 24*85г  - [Кол-во горизонтальных фэйсов на основной полке]', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="n">
+        <v>6070</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f aca="false">IF(EXACT(C12,"Boolean"),"'10'","NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>2919</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="1" t="str">
+        <f aca="false">CONCATENATE(F12,E12,G12,CONCATENATE(A12,"-RUS"),H12,CONCATENATE(A12," - ",B12),I12,D12,J12)</f>
+        <v>('2919', NULL, '6070-RUS', '6070 - Сум размер Sh + PF + Cesar + N&amp;T + Dreamies + С&amp;T Pedegree (в метрах) на всех полках', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
       </c>
     </row>
     <row r="1048422" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
